--- a/biology/Botanique/Caladium/Caladium.xlsx
+++ b/biology/Botanique/Caladium/Caladium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caladium est un genre d'environ 12 espèces de plantes de la famille des Araceae. Les noms vernaculaires sont, selon les espèces : oreilles d'éléphant (qu'ils partagent avec les genres proches Alocasia, Colocasia, et Xanthosoma), cœur de Jésus et ailes d'ange. Il y a plus de 1 000 cultivars de Caladium bicolor[1].
-Le genre Caladium tire son nom du mot amérindien kelady[2] et est indigène du Brésil et des régions voisines en Amérique du Sud et centrale. Les Caladium se développent dans des clairières de la forêt et sur les berges des rivières. Au cours de la saison sèche ils entrent en dormance. Les plantes sauvages font de  40 cm à 90 cm de hauteur, la plupart des feuilles font 15 cm de large sur 45 cm de long.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caladium est un genre d'environ 12 espèces de plantes de la famille des Araceae. Les noms vernaculaires sont, selon les espèces : oreilles d'éléphant (qu'ils partagent avec les genres proches Alocasia, Colocasia, et Xanthosoma), cœur de Jésus et ailes d'ange. Il y a plus de 1 000 cultivars de Caladium bicolor.
+Le genre Caladium tire son nom du mot amérindien kelady et est indigène du Brésil et des régions voisines en Amérique du Sud et centrale. Les Caladium se développent dans des clairières de la forêt et sur les berges des rivières. Au cours de la saison sèche ils entrent en dormance. Les plantes sauvages font de  40 cm à 90 cm de hauteur, la plupart des feuilles font 15 cm de large sur 45 cm de long.
 Toutes les parties de la plante sont toxiques, ne doivent pas être ingérées et peuvent irriter les peaux sensibles.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Culture et usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs espèces sont cultivées comme plantes ornementales pour leurs grandes feuilles en forme de flèche, blanches, roses ou rouges (ressemblant un peu au Coleus).
 Elles sont cultivées en Europe depuis la fin du XVIIIe siècle. Les deux variétés les plus largement cultivées sont appelées « feuilles fantaisie » et « feuilles fer de lance ». La première est la plus commune, c'est le caladium traditionnel de culture, les feuilles sont plus en forme de cœur. La seconde a plutôt des feuilles en de fer de lance. La plupart des caladiums atteignent environ 60 cm pour 60 cm de large, bien que des variétés naines soient maintenant cultivées.
@@ -549,7 +563,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Caladium andreanum Bogner
 Caladium bicolor (Aiton) Vent.
@@ -590,7 +606,9 @@
           <t>Images de différentes espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Caladium sp.
